--- a/Output/Falkson_1998 Falkson 1998 OS DTIC parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.84402157787172</v>
+        <v>-2.79738339481437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.166400404319523</v>
+        <v>0.171698196289065</v>
       </c>
       <c r="D2" t="n">
         <v>477.361711502741</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0114217344621236</v>
+        <v>-0.0139801110920569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0918101730715185</v>
+        <v>0.105889677952872</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.24237244057441</v>
+        <v>2.20329872621066</v>
       </c>
       <c r="C2" t="n">
-        <v>0.209726581516632</v>
+        <v>0.251472192731928</v>
       </c>
       <c r="D2" t="n">
         <v>462.247979117493</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.947676440017259</v>
+        <v>-0.949589611386702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.093789380646873</v>
+        <v>0.120483913853294</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.33221811018217</v>
+        <v>-2.29189352078826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.13146167929006</v>
+        <v>0.134661724775328</v>
       </c>
       <c r="D2" t="n">
         <v>462.226570004899</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.63784568118737</v>
+        <v>1.63959728057625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.182955046239077</v>
+        <v>0.243901739439504</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.53774537520061</v>
+        <v>-2.49902757553759</v>
       </c>
       <c r="C2" t="n">
-        <v>0.141652278771847</v>
+        <v>0.151796300191924</v>
       </c>
       <c r="D2" t="n">
         <v>470.939209496182</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0256502815535124</v>
+        <v>-0.0260432363531547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0115962452167281</v>
+        <v>0.012122266923568</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0276890945577009</v>
+        <v>0.0294802706089184</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00936032305604423</v>
+        <v>-0.0116199924086907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00936032305604423</v>
+        <v>-0.0116199924086907</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00842910787942218</v>
+        <v>0.011212623896963</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0439852389946526</v>
+        <v>0.0632382637174039</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0161834686181826</v>
+        <v>-0.0269335727041458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0161834686181826</v>
+        <v>-0.0269335727041458</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00879644792212403</v>
+        <v>0.0145163734974079</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0172821731217626</v>
+        <v>0.0181337801194661</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00660130343739672</v>
+        <v>0.0106255584561674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00660130343739672</v>
+        <v>0.0106255584561674</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0334725489443429</v>
+        <v>0.0594880585016157</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0200653680812571</v>
+        <v>0.0230421167519567</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000884315954813601</v>
+        <v>-0.000973927502218067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000884315954813601</v>
+        <v>-0.000973927502218067</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00013447290312649</v>
+        <v>0.000146949355366231</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Falkson_1998 Falkson 1998 OS DTIC parameters.xlsx
+++ b/Output/Falkson_1998 Falkson 1998 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.79738339481437</v>
+        <v>-2.84402157787172</v>
       </c>
       <c r="C2" t="n">
-        <v>0.171698196289065</v>
+        <v>0.166400404319523</v>
       </c>
       <c r="D2" t="n">
         <v>477.361711502741</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0139801110920569</v>
+        <v>-0.0114217344621236</v>
       </c>
       <c r="C3" t="n">
-        <v>0.105889677952872</v>
+        <v>0.0918101730715185</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20329872621066</v>
+        <v>2.24237244057441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251472192731928</v>
+        <v>0.209726581516632</v>
       </c>
       <c r="D2" t="n">
         <v>462.247979117493</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.949589611386702</v>
+        <v>-0.947676440017259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.120483913853294</v>
+        <v>0.093789380646873</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.29189352078826</v>
+        <v>-2.33221811018217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134661724775328</v>
+        <v>0.13146167929006</v>
       </c>
       <c r="D2" t="n">
         <v>462.226570004899</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.63959728057625</v>
+        <v>0.487257647581758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.243901739439504</v>
+        <v>0.110417509134753</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.49902757553759</v>
+        <v>-2.53774537520061</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151796300191924</v>
+        <v>0.141652278771847</v>
       </c>
       <c r="D2" t="n">
         <v>470.939209496182</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0260432363531547</v>
+        <v>-0.0256502815535124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.012122266923568</v>
+        <v>0.0115962452167281</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0294802706089184</v>
+        <v>0.0276890945577009</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0116199924086907</v>
+        <v>-0.00936032305604423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0116199924086907</v>
+        <v>-0.00936032305604423</v>
       </c>
       <c r="B3" t="n">
-        <v>0.011212623896963</v>
+        <v>0.00842910787942218</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0632382637174039</v>
+        <v>0.0439852389946526</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0269335727041458</v>
+        <v>-0.0161834686181826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0269335727041458</v>
+        <v>-0.0161834686181826</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0145163734974079</v>
+        <v>0.00879644792212403</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0181337801194661</v>
+        <v>0.0172821731217626</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0106255584561674</v>
+        <v>0.00414207079880718</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0106255584561674</v>
+        <v>0.00414207079880718</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0594880585016157</v>
+        <v>0.0121920263235233</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0230421167519567</v>
+        <v>0.0200653680812571</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.000973927502218067</v>
+        <v>-0.000884315954813601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.000973927502218067</v>
+        <v>-0.000884315954813601</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000146949355366231</v>
+        <v>0.00013447290312649</v>
       </c>
     </row>
   </sheetData>
